--- a/VerveStacks_ITA/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro_Trans.xlsx
+++ b/VerveStacks_ITA/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro_Trans.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr updateLinks="never"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\VerveStacks\assumptions\VerveStacks_ISO_template\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{051736B5-DC5D-489D-A436-3AEF6D5C43C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="weo_pg" sheetId="5" r:id="rId1"/>
-    <sheet name="Misc" sheetId="4" r:id="rId2"/>
+    <sheet name="weo_pg" sheetId="5" r:id="rId3"/>
+    <sheet name="Misc" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -156,55 +156,55 @@
     <t>ncap_iled</t>
   </si>
   <si>
+    <t>USD25</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>ITA</t>
+  </si>
+  <si>
+    <t>BASE</t>
+  </si>
+  <si>
+    <t>year2</t>
+  </si>
+  <si>
+    <t>sow</t>
+  </si>
+  <si>
+    <t>stage</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>2030</t>
+  </si>
+  <si>
+    <t>2050</t>
+  </si>
+  <si>
+    <t>commodity_group</t>
+  </si>
+  <si>
+    <t>lim_type</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>Hydropower - large-scale unit</t>
+  </si>
+  <si>
     <t>scenario</t>
   </si>
   <si>
-    <t>region</t>
-  </si>
-  <si>
-    <t>lim_type</t>
-  </si>
-  <si>
     <t>time_slice</t>
-  </si>
-  <si>
-    <t>commodity_group</t>
-  </si>
-  <si>
-    <t>currency</t>
-  </si>
-  <si>
-    <t>stage</t>
-  </si>
-  <si>
-    <t>sow</t>
-  </si>
-  <si>
-    <t>2023</t>
-  </si>
-  <si>
-    <t>2030</t>
-  </si>
-  <si>
-    <t>2050</t>
-  </si>
-  <si>
-    <t>year2</t>
-  </si>
-  <si>
-    <t>BASE</t>
-  </si>
-  <si>
-    <t>MEX</t>
-  </si>
-  <si>
-    <t>Hydropower - large-scale unit</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>USD25</t>
   </si>
   <si>
     <t>Solar photovoltaics - Large scale unit</t>
@@ -223,13 +223,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -249,18 +255,112 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="15" builtinId="5"/>
+    <cellStyle name="Currency" xfId="16" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="17" builtinId="7"/>
+    <cellStyle name="Comma" xfId="18" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="19" builtinId="6"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -534,36 +634,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3954DD3-0F24-46DF-B268-7A98442D0282}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3954DD3-0F24-46DF-B268-7A98442D0282}">
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C13"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="C3" sqref="C3:C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="7.265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.73046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.59765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.19921875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.46484375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.9296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.86328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="4.73046875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.1328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.28571428571429" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.71428571428571" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.57142857142857" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.8571428571429" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.57142857142857" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.57142857142857" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.71428571428571" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.1428571428571" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.42857142857143" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.85714285714286" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="4.71428571428571" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.14285714285714" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" ht="14.25">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="C1" t="s">
         <v>32</v>
@@ -575,22 +675,22 @@
         <v>26</v>
       </c>
       <c r="F1" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G1" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="H1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="I1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J1" t="s">
         <v>45</v>
       </c>
       <c r="K1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L1" t="s">
         <v>47</v>
@@ -602,15 +702,15 @@
         <v>49</v>
       </c>
       <c r="O1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="14.25">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
         <v>34</v>
@@ -619,45 +719,45 @@
         <v>53</v>
       </c>
       <c r="E2" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="F2" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="G2" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="H2" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="I2" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="J2" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="K2" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="L2">
-        <v>2700</v>
+        <v>2650</v>
       </c>
       <c r="M2">
-        <v>2700</v>
+        <v>2650</v>
       </c>
       <c r="N2">
-        <v>2700</v>
+        <v>2650</v>
       </c>
       <c r="O2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="14.25">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
         <v>34</v>
@@ -666,45 +766,45 @@
         <v>56</v>
       </c>
       <c r="E3" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="G3" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="H3" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="J3" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="K3" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="L3">
-        <v>1110</v>
+        <v>750</v>
       </c>
       <c r="M3">
-        <v>690</v>
+        <v>480</v>
       </c>
       <c r="N3">
-        <v>480</v>
+        <v>340</v>
       </c>
       <c r="O3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="14.25">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
         <v>34</v>
@@ -713,45 +813,45 @@
         <v>57</v>
       </c>
       <c r="E4" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="F4" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="G4" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="H4" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="I4" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="J4" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="K4" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="L4">
-        <v>4060</v>
+        <v>3120</v>
       </c>
       <c r="M4">
-        <v>2760</v>
+        <v>2280</v>
       </c>
       <c r="N4">
-        <v>1980</v>
+        <v>1660</v>
       </c>
       <c r="O4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="14.25">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
         <v>34</v>
@@ -760,45 +860,45 @@
         <v>58</v>
       </c>
       <c r="E5" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="F5" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="G5" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="H5" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="I5" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="J5" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="K5" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="L5">
-        <v>1500</v>
+        <v>1630</v>
       </c>
       <c r="M5">
-        <v>1430</v>
+        <v>1550</v>
       </c>
       <c r="N5">
-        <v>1370</v>
+        <v>1490</v>
       </c>
       <c r="O5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="14.25">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
         <v>37</v>
@@ -807,28 +907,28 @@
         <v>53</v>
       </c>
       <c r="E6" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="F6" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="G6" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="H6" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="I6" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="J6" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="K6" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="L6">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="M6">
         <v>65</v>
@@ -837,15 +937,15 @@
         <v>65</v>
       </c>
       <c r="O6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="14.25">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
         <v>37</v>
@@ -854,45 +954,45 @@
         <v>56</v>
       </c>
       <c r="E7" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="F7" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="G7" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="H7" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="I7" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="J7" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="K7" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="L7">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="M7">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="N7">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="O7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="14.25">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
         <v>37</v>
@@ -901,45 +1001,45 @@
         <v>57</v>
       </c>
       <c r="E8" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="F8" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="G8" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="H8" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="I8" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="J8" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="K8" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="L8">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="M8">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="N8">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="O8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="14.25">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
         <v>37</v>
@@ -948,45 +1048,45 @@
         <v>58</v>
       </c>
       <c r="E9" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="F9" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="G9" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="H9" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="I9" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="J9" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="K9" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="L9">
+        <v>42</v>
+      </c>
+      <c r="M9">
+        <v>40</v>
+      </c>
+      <c r="N9">
         <v>38</v>
       </c>
-      <c r="M9">
-        <v>36</v>
-      </c>
-      <c r="N9">
-        <v>36</v>
-      </c>
       <c r="O9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="14.25">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
         <v>38</v>
@@ -995,25 +1095,25 @@
         <v>53</v>
       </c>
       <c r="E10" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="F10" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="G10" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="H10" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="I10" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="J10" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="K10" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="L10">
         <v>4</v>
@@ -1025,15 +1125,15 @@
         <v>4</v>
       </c>
       <c r="O10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="14.25">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
         <v>38</v>
@@ -1042,25 +1142,25 @@
         <v>56</v>
       </c>
       <c r="E11" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="F11" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="G11" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="H11" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="I11" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="J11" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="K11" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="L11">
         <v>1.5</v>
@@ -1072,15 +1172,15 @@
         <v>1.5</v>
       </c>
       <c r="O11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="14.25">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
         <v>38</v>
@@ -1089,25 +1189,25 @@
         <v>57</v>
       </c>
       <c r="E12" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="F12" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="G12" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="H12" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="I12" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="J12" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="K12" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="L12">
         <v>3</v>
@@ -1119,15 +1219,15 @@
         <v>3</v>
       </c>
       <c r="O12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="14.25">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
         <v>38</v>
@@ -1136,25 +1236,25 @@
         <v>58</v>
       </c>
       <c r="E13" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="F13" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="H13" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="I13" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="J13" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="K13" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="L13">
         <v>1.5</v>
@@ -1166,7 +1266,7 @@
         <v>1.5</v>
       </c>
       <c r="O13" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1175,33 +1275,33 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C3:X41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.86428571428571" defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="3" width="13.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.4285714285714" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7142857142857" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.86328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.3984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.73046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.85714285714286" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.4285714285714" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.42857142857143" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.71428571428571" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.265625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.28571428571429" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.28571428571429" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:24" x14ac:dyDescent="0.45">
+    <row r="3" spans="12:12" ht="14.25">
       <c r="L3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="3:24" x14ac:dyDescent="0.45">
+    <row r="4" spans="3:14" ht="14.25">
       <c r="C4" t="s">
         <v>4</v>
       </c>
@@ -1215,7 +1315,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="3:24" x14ac:dyDescent="0.45">
+    <row r="5" spans="3:14" ht="14.25">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -1241,7 +1341,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="3:24" x14ac:dyDescent="0.45">
+    <row r="6" spans="4:14" ht="14.25">
       <c r="D6" t="s">
         <v>6</v>
       </c>
@@ -1261,7 +1361,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="3:24" x14ac:dyDescent="0.45">
+    <row r="7" spans="4:14" ht="14.25">
       <c r="D7" t="s">
         <v>7</v>
       </c>
@@ -1281,7 +1381,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="3:24" x14ac:dyDescent="0.45">
+    <row r="8" spans="4:7" ht="14.25">
       <c r="D8" t="s">
         <v>8</v>
       </c>
@@ -1292,7 +1392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="3:24" x14ac:dyDescent="0.45">
+    <row r="9" spans="4:7" ht="14.25">
       <c r="D9" t="s">
         <v>9</v>
       </c>
@@ -1300,10 +1400,10 @@
         <v>18</v>
       </c>
       <c r="G9">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="10" spans="3:24" x14ac:dyDescent="0.45">
+        <v>0.10</v>
+      </c>
+    </row>
+    <row r="10" spans="4:7" ht="14.25">
       <c r="D10" t="s">
         <v>10</v>
       </c>
@@ -1314,12 +1414,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="3:24" x14ac:dyDescent="0.45">
+    <row r="11" spans="16:16" ht="14.25">
       <c r="P11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="3:24" x14ac:dyDescent="0.45">
+    <row r="12" spans="16:20" ht="14.25">
       <c r="P12" t="s">
         <v>32</v>
       </c>
@@ -1336,7 +1436,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="3:24" x14ac:dyDescent="0.45">
+    <row r="13" spans="3:24" ht="14.25">
       <c r="C13" t="s">
         <v>4</v>
       </c>
@@ -1345,15 +1445,15 @@
       </c>
       <c r="Q13">
         <f>SUMIFS(weo_pg!L$2:L$18,weo_pg!$C$2:$C$18,Misc!$P13,weo_pg!$D$2:$D$18,Misc!$W13)</f>
-        <v>2700</v>
+        <v>2650</v>
       </c>
       <c r="R13">
         <f>SUMIFS(weo_pg!M$2:M$18,weo_pg!$C$2:$C$18,Misc!$P13,weo_pg!$D$2:$D$18,Misc!$W13)</f>
-        <v>2700</v>
+        <v>2650</v>
       </c>
       <c r="S13">
         <f>SUMIFS(weo_pg!N$2:N$18,weo_pg!$C$2:$C$18,Misc!$P13,weo_pg!$D$2:$D$18,Misc!$W13)</f>
-        <v>2700</v>
+        <v>2650</v>
       </c>
       <c r="T13" t="str">
         <f>X13</f>
@@ -1366,7 +1466,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="3:24" x14ac:dyDescent="0.45">
+    <row r="14" spans="3:24" ht="14.25">
       <c r="C14" t="s">
         <v>3</v>
       </c>
@@ -1387,18 +1487,18 @@
       </c>
       <c r="Q14">
         <f>SUMIFS(weo_pg!L$2:L$18,weo_pg!$C$2:$C$18,Misc!$P14,weo_pg!$D$2:$D$18,Misc!$W14)</f>
-        <v>1110</v>
+        <v>750</v>
       </c>
       <c r="R14">
         <f>SUMIFS(weo_pg!M$2:M$18,weo_pg!$C$2:$C$18,Misc!$P14,weo_pg!$D$2:$D$18,Misc!$W14)</f>
-        <v>690</v>
+        <v>480</v>
       </c>
       <c r="S14">
         <f>SUMIFS(weo_pg!N$2:N$18,weo_pg!$C$2:$C$18,Misc!$P14,weo_pg!$D$2:$D$18,Misc!$W14)</f>
-        <v>480</v>
+        <v>340</v>
       </c>
       <c r="T14" t="str">
-        <f t="shared" ref="T14:T16" si="0">X14</f>
+        <f t="shared" si="0" ref="T14:T16">X14</f>
         <v>EN[_]SPV*</v>
       </c>
       <c r="W14" t="s">
@@ -1408,7 +1508,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="3:24" x14ac:dyDescent="0.45">
+    <row r="15" spans="3:24" ht="14.25">
       <c r="C15" t="s">
         <v>11</v>
       </c>
@@ -1429,15 +1529,15 @@
       </c>
       <c r="Q15">
         <f>SUMIFS(weo_pg!L$2:L$18,weo_pg!$C$2:$C$18,Misc!$P15,weo_pg!$D$2:$D$18,Misc!$W15)</f>
-        <v>4060</v>
+        <v>3120</v>
       </c>
       <c r="R15">
         <f>SUMIFS(weo_pg!M$2:M$18,weo_pg!$C$2:$C$18,Misc!$P15,weo_pg!$D$2:$D$18,Misc!$W15)</f>
-        <v>2760</v>
+        <v>2280</v>
       </c>
       <c r="S15">
         <f>SUMIFS(weo_pg!N$2:N$18,weo_pg!$C$2:$C$18,Misc!$P15,weo_pg!$D$2:$D$18,Misc!$W15)</f>
-        <v>1980</v>
+        <v>1660</v>
       </c>
       <c r="T15" t="str">
         <f t="shared" si="0"/>
@@ -1450,7 +1550,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="3:24" x14ac:dyDescent="0.45">
+    <row r="16" spans="4:24" ht="14.25">
       <c r="D16" t="s">
         <v>6</v>
       </c>
@@ -1465,15 +1565,15 @@
       </c>
       <c r="Q16">
         <f>SUMIFS(weo_pg!L$2:L$18,weo_pg!$C$2:$C$18,Misc!$P16,weo_pg!$D$2:$D$18,Misc!$W16)</f>
-        <v>1500</v>
+        <v>1630</v>
       </c>
       <c r="R16">
         <f>SUMIFS(weo_pg!M$2:M$18,weo_pg!$C$2:$C$18,Misc!$P16,weo_pg!$D$2:$D$18,Misc!$W16)</f>
-        <v>1430</v>
+        <v>1550</v>
       </c>
       <c r="S16">
         <f>SUMIFS(weo_pg!N$2:N$18,weo_pg!$C$2:$C$18,Misc!$P16,weo_pg!$D$2:$D$18,Misc!$W16)</f>
-        <v>1370</v>
+        <v>1490</v>
       </c>
       <c r="T16" t="str">
         <f t="shared" si="0"/>
@@ -1486,7 +1586,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.45">
+    <row r="17" spans="4:24" ht="14.25">
       <c r="D17" t="s">
         <v>13</v>
       </c>
@@ -1501,7 +1601,7 @@
       </c>
       <c r="Q17">
         <f>SUMIFS(weo_pg!L$2:L$18,weo_pg!$C$2:$C$18,Misc!$P17,weo_pg!$D$2:$D$18,Misc!$W17)</f>
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="R17">
         <f>SUMIFS(weo_pg!M$2:M$18,weo_pg!$C$2:$C$18,Misc!$P17,weo_pg!$D$2:$D$18,Misc!$W17)</f>
@@ -1520,11 +1620,11 @@
         <v>Hydropower - large-scale unit</v>
       </c>
       <c r="X17" t="str">
-        <f t="shared" ref="X17:X24" si="1">X13</f>
+        <f t="shared" si="1" ref="X17:X24">X13</f>
         <v>EN[_]Hydro*</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.45">
+    <row r="18" spans="4:24" ht="14.25">
       <c r="D18" t="s">
         <v>13</v>
       </c>
@@ -1539,22 +1639,22 @@
       </c>
       <c r="Q18">
         <f>SUMIFS(weo_pg!L$2:L$18,weo_pg!$C$2:$C$18,Misc!$P18,weo_pg!$D$2:$D$18,Misc!$W18)</f>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="R18">
         <f>SUMIFS(weo_pg!M$2:M$18,weo_pg!$C$2:$C$18,Misc!$P18,weo_pg!$D$2:$D$18,Misc!$W18)</f>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="S18">
         <f>SUMIFS(weo_pg!N$2:N$18,weo_pg!$C$2:$C$18,Misc!$P18,weo_pg!$D$2:$D$18,Misc!$W18)</f>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="T18" t="str">
-        <f t="shared" ref="T18:T24" si="2">T14</f>
+        <f t="shared" si="2" ref="T18:T24">T14</f>
         <v>EN[_]SPV*</v>
       </c>
       <c r="W18" t="str">
-        <f t="shared" ref="W18" si="3">W14</f>
+        <f t="shared" si="3" ref="W18">W14</f>
         <v>Solar photovoltaics - Large scale unit</v>
       </c>
       <c r="X18" t="str">
@@ -1562,7 +1662,7 @@
         <v>EN[_]SPV*</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.45">
+    <row r="19" spans="4:24" ht="14.25">
       <c r="D19" t="s">
         <v>7</v>
       </c>
@@ -1577,22 +1677,22 @@
       </c>
       <c r="Q19">
         <f>SUMIFS(weo_pg!L$2:L$18,weo_pg!$C$2:$C$18,Misc!$P19,weo_pg!$D$2:$D$18,Misc!$W19)</f>
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="R19">
         <f>SUMIFS(weo_pg!M$2:M$18,weo_pg!$C$2:$C$18,Misc!$P19,weo_pg!$D$2:$D$18,Misc!$W19)</f>
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="S19">
         <f>SUMIFS(weo_pg!N$2:N$18,weo_pg!$C$2:$C$18,Misc!$P19,weo_pg!$D$2:$D$18,Misc!$W19)</f>
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="T19" t="str">
         <f t="shared" si="2"/>
         <v>EN[_]WOF*</v>
       </c>
       <c r="W19" t="str">
-        <f t="shared" ref="W19" si="4">W15</f>
+        <f t="shared" si="4" ref="W19">W15</f>
         <v>Wind offshore</v>
       </c>
       <c r="X19" t="str">
@@ -1600,7 +1700,7 @@
         <v>EN[_]WOF*</v>
       </c>
     </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.45">
+    <row r="20" spans="4:24" ht="14.25">
       <c r="D20" t="s">
         <v>8</v>
       </c>
@@ -1615,22 +1715,22 @@
       </c>
       <c r="Q20">
         <f>SUMIFS(weo_pg!L$2:L$18,weo_pg!$C$2:$C$18,Misc!$P20,weo_pg!$D$2:$D$18,Misc!$W20)</f>
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="R20">
         <f>SUMIFS(weo_pg!M$2:M$18,weo_pg!$C$2:$C$18,Misc!$P20,weo_pg!$D$2:$D$18,Misc!$W20)</f>
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="S20">
         <f>SUMIFS(weo_pg!N$2:N$18,weo_pg!$C$2:$C$18,Misc!$P20,weo_pg!$D$2:$D$18,Misc!$W20)</f>
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="T20" t="str">
         <f t="shared" si="2"/>
         <v>EN[_]WON*</v>
       </c>
       <c r="W20" t="str">
-        <f t="shared" ref="W20" si="5">W16</f>
+        <f t="shared" si="5" ref="W20">W16</f>
         <v>Wind onshore</v>
       </c>
       <c r="X20" t="str">
@@ -1638,7 +1738,7 @@
         <v>EN[_]WON*</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.45">
+    <row r="21" spans="4:24" ht="14.25">
       <c r="D21" t="s">
         <v>9</v>
       </c>
@@ -1668,7 +1768,7 @@
         <v>EN[_]Hydro*</v>
       </c>
       <c r="W21" t="str">
-        <f t="shared" ref="W21" si="6">W17</f>
+        <f t="shared" si="6" ref="W21">W17</f>
         <v>Hydropower - large-scale unit</v>
       </c>
       <c r="X21" t="str">
@@ -1676,7 +1776,7 @@
         <v>EN[_]Hydro*</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.45">
+    <row r="22" spans="4:24" ht="14.25">
       <c r="D22" t="s">
         <v>10</v>
       </c>
@@ -1706,7 +1806,7 @@
         <v>EN[_]SPV*</v>
       </c>
       <c r="W22" t="str">
-        <f t="shared" ref="W22" si="7">W18</f>
+        <f t="shared" si="7" ref="W22">W18</f>
         <v>Solar photovoltaics - Large scale unit</v>
       </c>
       <c r="X22" t="str">
@@ -1714,7 +1814,7 @@
         <v>EN[_]SPV*</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.45">
+    <row r="23" spans="16:24" ht="14.25">
       <c r="P23" t="s">
         <v>38</v>
       </c>
@@ -1735,7 +1835,7 @@
         <v>EN[_]WOF*</v>
       </c>
       <c r="W23" t="str">
-        <f t="shared" ref="W23" si="8">W19</f>
+        <f t="shared" si="8" ref="W23">W19</f>
         <v>Wind offshore</v>
       </c>
       <c r="X23" t="str">
@@ -1743,7 +1843,7 @@
         <v>EN[_]WOF*</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.45">
+    <row r="24" spans="16:24" ht="14.25">
       <c r="P24" t="s">
         <v>38</v>
       </c>
@@ -1764,7 +1864,7 @@
         <v>EN[_]WON*</v>
       </c>
       <c r="W24" t="str">
-        <f t="shared" ref="W24" si="9">W20</f>
+        <f t="shared" si="9" ref="W24">W20</f>
         <v>Wind onshore</v>
       </c>
       <c r="X24" t="str">
@@ -1772,12 +1872,12 @@
         <v>EN[_]WON*</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.45">
+    <row r="27" spans="3:3" ht="14.25">
       <c r="C27" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.45">
+    <row r="28" spans="3:7" ht="14.25">
       <c r="C28" t="s">
         <v>20</v>
       </c>
@@ -1794,7 +1894,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.45">
+    <row r="29" spans="3:7" ht="14.25">
       <c r="C29" t="s">
         <v>21</v>
       </c>
@@ -1805,7 +1905,7 @@
         <v>8.76</v>
       </c>
     </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.45">
+    <row r="30" spans="3:7" ht="14.25">
       <c r="C30" t="s">
         <v>21</v>
       </c>
@@ -1816,7 +1916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.45">
+    <row r="31" spans="3:7" ht="14.25">
       <c r="C31" t="s">
         <v>21</v>
       </c>
@@ -1824,10 +1924,10 @@
         <v>22</v>
       </c>
       <c r="G31" s="1">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.45">
+        <v>0.10</v>
+      </c>
+    </row>
+    <row r="32" spans="4:7" ht="14.25">
       <c r="D32" t="s">
         <v>7</v>
       </c>
@@ -1838,7 +1938,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="33" spans="4:7" ht="14.25">
       <c r="D33" t="s">
         <v>10</v>
       </c>
@@ -1849,7 +1949,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="34" spans="4:7" ht="14.25">
       <c r="D34" t="s">
         <v>9</v>
       </c>
@@ -1860,7 +1960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="35" spans="3:7" ht="14.25">
       <c r="C35" t="s">
         <v>21</v>
       </c>
@@ -1874,12 +1974,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="38" spans="3:3" ht="14.25">
       <c r="C38" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="39" spans="3:5" ht="14.25">
       <c r="C39" t="s">
         <v>25</v>
       </c>
@@ -1890,7 +1990,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="40" spans="3:5" ht="14.25">
       <c r="C40" t="s">
         <v>18</v>
       </c>
@@ -1901,7 +2001,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="41" spans="3:5" ht="14.25">
       <c r="C41" t="s">
         <v>19</v>
       </c>

--- a/VerveStacks_ITA/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro_Trans.xlsx
+++ b/VerveStacks_ITA/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro_Trans.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr updateLinks="never"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\VerveStacks\assumptions\VerveStacks_ISO_template\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{051736B5-DC5D-489D-A436-3AEF6D5C43C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" activeTab="0"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="weo_pg" sheetId="5" r:id="rId3"/>
-    <sheet name="Misc" sheetId="4" r:id="rId4"/>
+    <sheet name="weo_pg" sheetId="5" r:id="rId1"/>
+    <sheet name="Misc" sheetId="4" r:id="rId2"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -156,55 +156,55 @@
     <t>ncap_iled</t>
   </si>
   <si>
+    <t>scenario</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>lim_type</t>
+  </si>
+  <si>
+    <t>time_slice</t>
+  </si>
+  <si>
+    <t>commodity_group</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>stage</t>
+  </si>
+  <si>
+    <t>sow</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>2030</t>
+  </si>
+  <si>
+    <t>2050</t>
+  </si>
+  <si>
+    <t>year2</t>
+  </si>
+  <si>
+    <t>BASE</t>
+  </si>
+  <si>
+    <t>MEX</t>
+  </si>
+  <si>
+    <t>Hydropower - large-scale unit</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>USD25</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>ITA</t>
-  </si>
-  <si>
-    <t>BASE</t>
-  </si>
-  <si>
-    <t>year2</t>
-  </si>
-  <si>
-    <t>sow</t>
-  </si>
-  <si>
-    <t>stage</t>
-  </si>
-  <si>
-    <t>currency</t>
-  </si>
-  <si>
-    <t>2023</t>
-  </si>
-  <si>
-    <t>2030</t>
-  </si>
-  <si>
-    <t>2050</t>
-  </si>
-  <si>
-    <t>commodity_group</t>
-  </si>
-  <si>
-    <t>lim_type</t>
-  </si>
-  <si>
-    <t>region</t>
-  </si>
-  <si>
-    <t>Hydropower - large-scale unit</t>
-  </si>
-  <si>
-    <t>scenario</t>
-  </si>
-  <si>
-    <t>time_slice</t>
   </si>
   <si>
     <t>Solar photovoltaics - Large scale unit</t>
@@ -223,19 +223,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -255,112 +249,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="15" builtinId="5"/>
-    <cellStyle name="Currency" xfId="16" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="17" builtinId="7"/>
-    <cellStyle name="Comma" xfId="18" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="19" builtinId="6"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -634,36 +534,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3954DD3-0F24-46DF-B268-7A98442D0282}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3954DD3-0F24-46DF-B268-7A98442D0282}">
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="C3" sqref="C3:C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="7.28571428571429" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.71428571428571" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.57142857142857" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.8571428571429" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.57142857142857" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.57142857142857" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.71428571428571" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.1428571428571" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.42857142857143" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.85714285714286" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="4.71428571428571" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.14285714285714" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.19921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.46484375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.9296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.86328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="4.73046875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="14.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s">
         <v>32</v>
@@ -675,22 +575,22 @@
         <v>26</v>
       </c>
       <c r="F1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="H1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J1" t="s">
         <v>45</v>
       </c>
       <c r="K1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L1" t="s">
         <v>47</v>
@@ -702,15 +602,15 @@
         <v>49</v>
       </c>
       <c r="O1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="14.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
         <v>34</v>
@@ -719,45 +619,45 @@
         <v>53</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="F2" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="H2" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="I2" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="J2" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="K2" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="L2">
-        <v>2650</v>
+        <v>2700</v>
       </c>
       <c r="M2">
-        <v>2650</v>
+        <v>2700</v>
       </c>
       <c r="N2">
-        <v>2650</v>
+        <v>2700</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="14.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="C3" t="s">
         <v>34</v>
@@ -766,45 +666,45 @@
         <v>56</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="F3" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="H3" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="I3" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="J3" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="K3" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="L3">
-        <v>750</v>
+        <v>1110</v>
       </c>
       <c r="M3">
+        <v>690</v>
+      </c>
+      <c r="N3">
         <v>480</v>
       </c>
-      <c r="N3">
-        <v>340</v>
-      </c>
       <c r="O3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="14.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="C4" t="s">
         <v>34</v>
@@ -813,45 +713,45 @@
         <v>57</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="F4" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="H4" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="I4" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="J4" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="K4" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="L4">
-        <v>3120</v>
+        <v>4060</v>
       </c>
       <c r="M4">
-        <v>2280</v>
+        <v>2760</v>
       </c>
       <c r="N4">
-        <v>1660</v>
+        <v>1980</v>
       </c>
       <c r="O4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="14.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="C5" t="s">
         <v>34</v>
@@ -860,45 +760,45 @@
         <v>58</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="F5" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="G5" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="H5" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="I5" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="J5" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="K5" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="L5">
-        <v>1630</v>
+        <v>1500</v>
       </c>
       <c r="M5">
-        <v>1550</v>
+        <v>1430</v>
       </c>
       <c r="N5">
-        <v>1490</v>
+        <v>1370</v>
       </c>
       <c r="O5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="14.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="C6" t="s">
         <v>37</v>
@@ -907,28 +807,28 @@
         <v>53</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="F6" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="G6" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="H6" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="I6" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="J6" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="K6" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="L6">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="M6">
         <v>65</v>
@@ -937,15 +837,15 @@
         <v>65</v>
       </c>
       <c r="O6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="14.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="C7" t="s">
         <v>37</v>
@@ -954,45 +854,45 @@
         <v>56</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="F7" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="H7" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="I7" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="J7" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="K7" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="L7">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="M7">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="N7">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="O7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="14.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="C8" t="s">
         <v>37</v>
@@ -1001,45 +901,45 @@
         <v>57</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="F8" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="G8" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="H8" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="I8" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="J8" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="K8" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="L8">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="M8">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="N8">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="O8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="14.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="C9" t="s">
         <v>37</v>
@@ -1048,45 +948,45 @@
         <v>58</v>
       </c>
       <c r="E9" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="F9" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="G9" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="H9" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="I9" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="J9" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="K9" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="L9">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="M9">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N9">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="O9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="14.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
         <v>38</v>
@@ -1095,25 +995,25 @@
         <v>53</v>
       </c>
       <c r="E10" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="F10" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="G10" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="H10" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="I10" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="J10" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="K10" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="L10">
         <v>4</v>
@@ -1125,15 +1025,15 @@
         <v>4</v>
       </c>
       <c r="O10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="14.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s">
         <v>38</v>
@@ -1142,25 +1042,25 @@
         <v>56</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="F11" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="G11" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="H11" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="I11" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="J11" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="K11" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="L11">
         <v>1.5</v>
@@ -1172,15 +1072,15 @@
         <v>1.5</v>
       </c>
       <c r="O11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="14.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
         <v>38</v>
@@ -1189,25 +1089,25 @@
         <v>57</v>
       </c>
       <c r="E12" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="F12" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="G12" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="H12" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="I12" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="J12" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="K12" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="L12">
         <v>3</v>
@@ -1219,15 +1119,15 @@
         <v>3</v>
       </c>
       <c r="O12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="14.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="C13" t="s">
         <v>38</v>
@@ -1236,25 +1136,25 @@
         <v>58</v>
       </c>
       <c r="E13" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="F13" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="G13" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="H13" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="I13" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="J13" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="K13" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="L13">
         <v>1.5</v>
@@ -1266,7 +1166,7 @@
         <v>1.5</v>
       </c>
       <c r="O13" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1275,33 +1175,33 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C3:X41"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="P12" sqref="P12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86428571428571" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="13.4285714285714" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7142857142857" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.73046875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.85714285714286" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.4285714285714" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.42857142857143" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.71428571428571" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.86328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.3984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.73046875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.28571428571429" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.28571428571429" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="12:12" ht="14.25">
+    <row r="3" spans="3:24" x14ac:dyDescent="0.45">
       <c r="L3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="3:14" ht="14.25">
+    <row r="4" spans="3:24" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
         <v>4</v>
       </c>
@@ -1315,7 +1215,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="3:14" ht="14.25">
+    <row r="5" spans="3:24" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -1341,7 +1241,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="4:14" ht="14.25">
+    <row r="6" spans="3:24" x14ac:dyDescent="0.45">
       <c r="D6" t="s">
         <v>6</v>
       </c>
@@ -1361,7 +1261,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="4:14" ht="14.25">
+    <row r="7" spans="3:24" x14ac:dyDescent="0.45">
       <c r="D7" t="s">
         <v>7</v>
       </c>
@@ -1381,7 +1281,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="4:7" ht="14.25">
+    <row r="8" spans="3:24" x14ac:dyDescent="0.45">
       <c r="D8" t="s">
         <v>8</v>
       </c>
@@ -1392,7 +1292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="4:7" ht="14.25">
+    <row r="9" spans="3:24" x14ac:dyDescent="0.45">
       <c r="D9" t="s">
         <v>9</v>
       </c>
@@ -1400,10 +1300,10 @@
         <v>18</v>
       </c>
       <c r="G9">
-        <v>0.10</v>
-      </c>
-    </row>
-    <row r="10" spans="4:7" ht="14.25">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" spans="3:24" x14ac:dyDescent="0.45">
       <c r="D10" t="s">
         <v>10</v>
       </c>
@@ -1414,12 +1314,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="16:16" ht="14.25">
+    <row r="11" spans="3:24" x14ac:dyDescent="0.45">
       <c r="P11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="16:20" ht="14.25">
+    <row r="12" spans="3:24" x14ac:dyDescent="0.45">
       <c r="P12" t="s">
         <v>32</v>
       </c>
@@ -1436,7 +1336,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="3:24" ht="14.25">
+    <row r="13" spans="3:24" x14ac:dyDescent="0.45">
       <c r="C13" t="s">
         <v>4</v>
       </c>
@@ -1445,15 +1345,15 @@
       </c>
       <c r="Q13">
         <f>SUMIFS(weo_pg!L$2:L$18,weo_pg!$C$2:$C$18,Misc!$P13,weo_pg!$D$2:$D$18,Misc!$W13)</f>
-        <v>2650</v>
+        <v>2700</v>
       </c>
       <c r="R13">
         <f>SUMIFS(weo_pg!M$2:M$18,weo_pg!$C$2:$C$18,Misc!$P13,weo_pg!$D$2:$D$18,Misc!$W13)</f>
-        <v>2650</v>
+        <v>2700</v>
       </c>
       <c r="S13">
         <f>SUMIFS(weo_pg!N$2:N$18,weo_pg!$C$2:$C$18,Misc!$P13,weo_pg!$D$2:$D$18,Misc!$W13)</f>
-        <v>2650</v>
+        <v>2700</v>
       </c>
       <c r="T13" t="str">
         <f>X13</f>
@@ -1466,7 +1366,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="3:24" ht="14.25">
+    <row r="14" spans="3:24" x14ac:dyDescent="0.45">
       <c r="C14" t="s">
         <v>3</v>
       </c>
@@ -1487,18 +1387,18 @@
       </c>
       <c r="Q14">
         <f>SUMIFS(weo_pg!L$2:L$18,weo_pg!$C$2:$C$18,Misc!$P14,weo_pg!$D$2:$D$18,Misc!$W14)</f>
-        <v>750</v>
+        <v>1110</v>
       </c>
       <c r="R14">
         <f>SUMIFS(weo_pg!M$2:M$18,weo_pg!$C$2:$C$18,Misc!$P14,weo_pg!$D$2:$D$18,Misc!$W14)</f>
-        <v>480</v>
+        <v>690</v>
       </c>
       <c r="S14">
         <f>SUMIFS(weo_pg!N$2:N$18,weo_pg!$C$2:$C$18,Misc!$P14,weo_pg!$D$2:$D$18,Misc!$W14)</f>
-        <v>340</v>
+        <v>480</v>
       </c>
       <c r="T14" t="str">
-        <f t="shared" si="0" ref="T14:T16">X14</f>
+        <f t="shared" ref="T14:T16" si="0">X14</f>
         <v>EN[_]SPV*</v>
       </c>
       <c r="W14" t="s">
@@ -1508,7 +1408,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="3:24" ht="14.25">
+    <row r="15" spans="3:24" x14ac:dyDescent="0.45">
       <c r="C15" t="s">
         <v>11</v>
       </c>
@@ -1529,15 +1429,15 @@
       </c>
       <c r="Q15">
         <f>SUMIFS(weo_pg!L$2:L$18,weo_pg!$C$2:$C$18,Misc!$P15,weo_pg!$D$2:$D$18,Misc!$W15)</f>
-        <v>3120</v>
+        <v>4060</v>
       </c>
       <c r="R15">
         <f>SUMIFS(weo_pg!M$2:M$18,weo_pg!$C$2:$C$18,Misc!$P15,weo_pg!$D$2:$D$18,Misc!$W15)</f>
-        <v>2280</v>
+        <v>2760</v>
       </c>
       <c r="S15">
         <f>SUMIFS(weo_pg!N$2:N$18,weo_pg!$C$2:$C$18,Misc!$P15,weo_pg!$D$2:$D$18,Misc!$W15)</f>
-        <v>1660</v>
+        <v>1980</v>
       </c>
       <c r="T15" t="str">
         <f t="shared" si="0"/>
@@ -1550,7 +1450,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="4:24" ht="14.25">
+    <row r="16" spans="3:24" x14ac:dyDescent="0.45">
       <c r="D16" t="s">
         <v>6</v>
       </c>
@@ -1565,15 +1465,15 @@
       </c>
       <c r="Q16">
         <f>SUMIFS(weo_pg!L$2:L$18,weo_pg!$C$2:$C$18,Misc!$P16,weo_pg!$D$2:$D$18,Misc!$W16)</f>
-        <v>1630</v>
+        <v>1500</v>
       </c>
       <c r="R16">
         <f>SUMIFS(weo_pg!M$2:M$18,weo_pg!$C$2:$C$18,Misc!$P16,weo_pg!$D$2:$D$18,Misc!$W16)</f>
-        <v>1550</v>
+        <v>1430</v>
       </c>
       <c r="S16">
         <f>SUMIFS(weo_pg!N$2:N$18,weo_pg!$C$2:$C$18,Misc!$P16,weo_pg!$D$2:$D$18,Misc!$W16)</f>
-        <v>1490</v>
+        <v>1370</v>
       </c>
       <c r="T16" t="str">
         <f t="shared" si="0"/>
@@ -1586,7 +1486,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="4:24" ht="14.25">
+    <row r="17" spans="3:24" x14ac:dyDescent="0.45">
       <c r="D17" t="s">
         <v>13</v>
       </c>
@@ -1601,7 +1501,7 @@
       </c>
       <c r="Q17">
         <f>SUMIFS(weo_pg!L$2:L$18,weo_pg!$C$2:$C$18,Misc!$P17,weo_pg!$D$2:$D$18,Misc!$W17)</f>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="R17">
         <f>SUMIFS(weo_pg!M$2:M$18,weo_pg!$C$2:$C$18,Misc!$P17,weo_pg!$D$2:$D$18,Misc!$W17)</f>
@@ -1620,11 +1520,11 @@
         <v>Hydropower - large-scale unit</v>
       </c>
       <c r="X17" t="str">
-        <f t="shared" si="1" ref="X17:X24">X13</f>
+        <f t="shared" ref="X17:X24" si="1">X13</f>
         <v>EN[_]Hydro*</v>
       </c>
     </row>
-    <row r="18" spans="4:24" ht="14.25">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.45">
       <c r="D18" t="s">
         <v>13</v>
       </c>
@@ -1639,22 +1539,22 @@
       </c>
       <c r="Q18">
         <f>SUMIFS(weo_pg!L$2:L$18,weo_pg!$C$2:$C$18,Misc!$P18,weo_pg!$D$2:$D$18,Misc!$W18)</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="R18">
         <f>SUMIFS(weo_pg!M$2:M$18,weo_pg!$C$2:$C$18,Misc!$P18,weo_pg!$D$2:$D$18,Misc!$W18)</f>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="S18">
         <f>SUMIFS(weo_pg!N$2:N$18,weo_pg!$C$2:$C$18,Misc!$P18,weo_pg!$D$2:$D$18,Misc!$W18)</f>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="T18" t="str">
-        <f t="shared" si="2" ref="T18:T24">T14</f>
+        <f t="shared" ref="T18:T24" si="2">T14</f>
         <v>EN[_]SPV*</v>
       </c>
       <c r="W18" t="str">
-        <f t="shared" si="3" ref="W18">W14</f>
+        <f t="shared" ref="W18" si="3">W14</f>
         <v>Solar photovoltaics - Large scale unit</v>
       </c>
       <c r="X18" t="str">
@@ -1662,7 +1562,7 @@
         <v>EN[_]SPV*</v>
       </c>
     </row>
-    <row r="19" spans="4:24" ht="14.25">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.45">
       <c r="D19" t="s">
         <v>7</v>
       </c>
@@ -1677,22 +1577,22 @@
       </c>
       <c r="Q19">
         <f>SUMIFS(weo_pg!L$2:L$18,weo_pg!$C$2:$C$18,Misc!$P19,weo_pg!$D$2:$D$18,Misc!$W19)</f>
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="R19">
         <f>SUMIFS(weo_pg!M$2:M$18,weo_pg!$C$2:$C$18,Misc!$P19,weo_pg!$D$2:$D$18,Misc!$W19)</f>
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="S19">
         <f>SUMIFS(weo_pg!N$2:N$18,weo_pg!$C$2:$C$18,Misc!$P19,weo_pg!$D$2:$D$18,Misc!$W19)</f>
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="T19" t="str">
         <f t="shared" si="2"/>
         <v>EN[_]WOF*</v>
       </c>
       <c r="W19" t="str">
-        <f t="shared" si="4" ref="W19">W15</f>
+        <f t="shared" ref="W19" si="4">W15</f>
         <v>Wind offshore</v>
       </c>
       <c r="X19" t="str">
@@ -1700,7 +1600,7 @@
         <v>EN[_]WOF*</v>
       </c>
     </row>
-    <row r="20" spans="4:24" ht="14.25">
+    <row r="20" spans="3:24" x14ac:dyDescent="0.45">
       <c r="D20" t="s">
         <v>8</v>
       </c>
@@ -1715,22 +1615,22 @@
       </c>
       <c r="Q20">
         <f>SUMIFS(weo_pg!L$2:L$18,weo_pg!$C$2:$C$18,Misc!$P20,weo_pg!$D$2:$D$18,Misc!$W20)</f>
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="R20">
         <f>SUMIFS(weo_pg!M$2:M$18,weo_pg!$C$2:$C$18,Misc!$P20,weo_pg!$D$2:$D$18,Misc!$W20)</f>
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="S20">
         <f>SUMIFS(weo_pg!N$2:N$18,weo_pg!$C$2:$C$18,Misc!$P20,weo_pg!$D$2:$D$18,Misc!$W20)</f>
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="T20" t="str">
         <f t="shared" si="2"/>
         <v>EN[_]WON*</v>
       </c>
       <c r="W20" t="str">
-        <f t="shared" si="5" ref="W20">W16</f>
+        <f t="shared" ref="W20" si="5">W16</f>
         <v>Wind onshore</v>
       </c>
       <c r="X20" t="str">
@@ -1738,7 +1638,7 @@
         <v>EN[_]WON*</v>
       </c>
     </row>
-    <row r="21" spans="4:24" ht="14.25">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.45">
       <c r="D21" t="s">
         <v>9</v>
       </c>
@@ -1768,7 +1668,7 @@
         <v>EN[_]Hydro*</v>
       </c>
       <c r="W21" t="str">
-        <f t="shared" si="6" ref="W21">W17</f>
+        <f t="shared" ref="W21" si="6">W17</f>
         <v>Hydropower - large-scale unit</v>
       </c>
       <c r="X21" t="str">
@@ -1776,7 +1676,7 @@
         <v>EN[_]Hydro*</v>
       </c>
     </row>
-    <row r="22" spans="4:24" ht="14.25">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.45">
       <c r="D22" t="s">
         <v>10</v>
       </c>
@@ -1806,7 +1706,7 @@
         <v>EN[_]SPV*</v>
       </c>
       <c r="W22" t="str">
-        <f t="shared" si="7" ref="W22">W18</f>
+        <f t="shared" ref="W22" si="7">W18</f>
         <v>Solar photovoltaics - Large scale unit</v>
       </c>
       <c r="X22" t="str">
@@ -1814,7 +1714,7 @@
         <v>EN[_]SPV*</v>
       </c>
     </row>
-    <row r="23" spans="16:24" ht="14.25">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.45">
       <c r="P23" t="s">
         <v>38</v>
       </c>
@@ -1835,7 +1735,7 @@
         <v>EN[_]WOF*</v>
       </c>
       <c r="W23" t="str">
-        <f t="shared" si="8" ref="W23">W19</f>
+        <f t="shared" ref="W23" si="8">W19</f>
         <v>Wind offshore</v>
       </c>
       <c r="X23" t="str">
@@ -1843,7 +1743,7 @@
         <v>EN[_]WOF*</v>
       </c>
     </row>
-    <row r="24" spans="16:24" ht="14.25">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.45">
       <c r="P24" t="s">
         <v>38</v>
       </c>
@@ -1864,7 +1764,7 @@
         <v>EN[_]WON*</v>
       </c>
       <c r="W24" t="str">
-        <f t="shared" si="9" ref="W24">W20</f>
+        <f t="shared" ref="W24" si="9">W20</f>
         <v>Wind onshore</v>
       </c>
       <c r="X24" t="str">
@@ -1872,12 +1772,12 @@
         <v>EN[_]WON*</v>
       </c>
     </row>
-    <row r="27" spans="3:3" ht="14.25">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.45">
       <c r="C27" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="3:7" ht="14.25">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.45">
       <c r="C28" t="s">
         <v>20</v>
       </c>
@@ -1894,7 +1794,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="3:7" ht="14.25">
+    <row r="29" spans="3:24" x14ac:dyDescent="0.45">
       <c r="C29" t="s">
         <v>21</v>
       </c>
@@ -1905,7 +1805,7 @@
         <v>8.76</v>
       </c>
     </row>
-    <row r="30" spans="3:7" ht="14.25">
+    <row r="30" spans="3:24" x14ac:dyDescent="0.45">
       <c r="C30" t="s">
         <v>21</v>
       </c>
@@ -1916,7 +1816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="3:7" ht="14.25">
+    <row r="31" spans="3:24" x14ac:dyDescent="0.45">
       <c r="C31" t="s">
         <v>21</v>
       </c>
@@ -1924,10 +1824,10 @@
         <v>22</v>
       </c>
       <c r="G31" s="1">
-        <v>0.10</v>
-      </c>
-    </row>
-    <row r="32" spans="4:7" ht="14.25">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.45">
       <c r="D32" t="s">
         <v>7</v>
       </c>
@@ -1938,7 +1838,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="4:7" ht="14.25">
+    <row r="33" spans="3:7" x14ac:dyDescent="0.45">
       <c r="D33" t="s">
         <v>10</v>
       </c>
@@ -1949,7 +1849,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="4:7" ht="14.25">
+    <row r="34" spans="3:7" x14ac:dyDescent="0.45">
       <c r="D34" t="s">
         <v>9</v>
       </c>
@@ -1960,7 +1860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="3:7" ht="14.25">
+    <row r="35" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C35" t="s">
         <v>21</v>
       </c>
@@ -1974,12 +1874,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="3:3" ht="14.25">
+    <row r="38" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C38" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="3:5" ht="14.25">
+    <row r="39" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C39" t="s">
         <v>25</v>
       </c>
@@ -1990,7 +1890,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="3:5" ht="14.25">
+    <row r="40" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C40" t="s">
         <v>18</v>
       </c>
@@ -2001,7 +1901,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="3:5" ht="14.25">
+    <row r="41" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C41" t="s">
         <v>19</v>
       </c>

--- a/VerveStacks_ITA/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro_Trans.xlsx
+++ b/VerveStacks_ITA/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro_Trans.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\VerveStacks\assumptions\VerveStacks_ISO_template\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{051736B5-DC5D-489D-A436-3AEF6D5C43C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{645EF022-4035-4D89-AC1C-042FAE4FD660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="5" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="61">
   <si>
     <t>PSET_PN</t>
   </si>
@@ -217,6 +217,9 @@
   </si>
   <si>
     <t>~TFM_INS-TS</t>
+  </si>
+  <si>
+    <t>ELE,-STG</t>
   </si>
 </sst>
 </file>
@@ -537,7 +540,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3954DD3-0F24-46DF-B268-7A98442D0282}">
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3:C13"/>
     </sheetView>
   </sheetViews>
@@ -1178,8 +1181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C3:X41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1807,7 +1810,7 @@
     </row>
     <row r="30" spans="3:24" x14ac:dyDescent="0.45">
       <c r="C30" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="D30" t="s">
         <v>8</v>
